--- a/nmadb/480453.xlsx
+++ b/nmadb/480453.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afshin\Desktop\Working folder\St. Michael\NMA\DA_Particia\Verification_1st_NMA_n=54\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,64 +19,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>SMS</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>SMS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-No Study Year in article/supplement</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>SMS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-negative treatment effect indicates benefit.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
@@ -195,8 +133,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,19 +269,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -795,48 +720,48 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -852,7 +777,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -926,7 +851,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -961,7 +885,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1137,19 +1060,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1210,7 +1133,7 @@
         <v>2.3267396999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1233,7 +1156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1256,7 +1179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1279,7 +1202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1302,7 +1225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1325,7 +1248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1348,7 +1271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1371,7 +1294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1394,7 +1317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1417,7 +1340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1440,7 +1363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1463,7 +1386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1486,7 +1409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1509,7 +1432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1532,7 +1455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1555,7 +1478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1578,7 +1501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1601,7 +1524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1624,7 +1547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1647,7 +1570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1670,7 +1593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1693,7 +1616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1716,7 +1639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1733,7 +1656,7 @@
         <v>5.9110975000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1750,7 +1673,7 @@
         <v>7.7792994000000004E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1767,7 +1690,7 @@
         <v>6.1908536E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1784,7 +1707,7 @@
         <v>2.3860205999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1801,7 +1724,7 @@
         <v>5.6544200000000003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1818,7 +1741,7 @@
         <v>0.19888566599999999</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1835,7 +1758,7 @@
         <v>4.3498862999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1852,7 +1775,7 @@
         <v>0.20011510599999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1869,7 +1792,7 @@
         <v>1.1231151E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1886,7 +1809,7 @@
         <v>0.146278199</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1903,7 +1826,7 @@
         <v>7.6700404E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1920,7 +1843,7 @@
         <v>7.8941276000000005E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1937,7 +1860,7 @@
         <v>3.3108780999999997E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1954,7 +1877,7 @@
         <v>4.1036847000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1971,7 +1894,7 @@
         <v>4.4932779999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1988,7 +1911,7 @@
         <v>0.13677824599999999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2005,7 +1928,7 @@
         <v>0.54134215100000005</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2022,7 +1945,7 @@
         <v>6.6713509000000004E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2039,7 +1962,7 @@
         <v>0.129210459</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2056,7 +1979,7 @@
         <v>5.2069256000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2073,7 +1996,7 @@
         <v>4.7054709E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2090,7 +2013,7 @@
         <v>7.2787099999999993E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2107,7 +2030,7 @@
         <v>0.101000179</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2124,7 +2047,7 @@
         <v>0.26737741199999998</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2141,7 +2064,7 @@
         <v>0.21519021699999999</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2158,7 +2081,7 @@
         <v>6.3636981999999995E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2175,7 +2098,7 @@
         <v>0.14288619399999999</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2192,7 +2115,7 @@
         <v>0.100345092</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2209,7 +2132,7 @@
         <v>0.202386435</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2226,7 +2149,7 @@
         <v>0.118049945</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2243,7 +2166,7 @@
         <v>1.3349939999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2260,7 +2183,7 @@
         <v>7.8620879000000005E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2277,7 +2200,7 @@
         <v>0.217675324</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2294,7 +2217,7 @@
         <v>0.235819524</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2311,7 +2234,7 @@
         <v>7.6026901999999993E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2328,7 +2251,7 @@
         <v>0.10389677</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2345,7 +2268,7 @@
         <v>0.100064876</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2362,7 +2285,7 @@
         <v>0.12110768700000001</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2379,7 +2302,7 @@
         <v>0.35594513</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2396,7 +2319,7 @@
         <v>5.0616011000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2413,7 +2336,7 @@
         <v>2.2278836999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2430,7 +2353,7 @@
         <v>0.102365496</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2447,7 +2370,7 @@
         <v>9.8548551999999998E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2464,7 +2387,7 @@
         <v>5.7776624999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2481,7 +2404,7 @@
         <v>1.0668453E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2498,7 +2421,7 @@
         <v>8.6446580999999995E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2515,7 +2438,7 @@
         <v>0.11056433</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2532,7 +2455,7 @@
         <v>5.6389517E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2549,7 +2472,7 @@
         <v>7.8859156E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2566,7 +2489,7 @@
         <v>0.103426504</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2583,7 +2506,7 @@
         <v>0.286526485</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2600,7 +2523,7 @@
         <v>0.17041677299999999</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2629,7 +2552,7 @@
         <v>5.8823529411764698E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2658,7 +2581,7 @@
         <v>1.63934426229508E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2687,7 +2610,7 @@
         <v>8.3333333333333301E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2716,7 +2639,7 @@
         <v>1.49253731343284E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2745,7 +2668,7 @@
         <v>0.16666666666666699</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2774,7 +2697,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2803,7 +2726,7 @@
         <v>6.6666666666666693E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2832,7 +2755,7 @@
         <v>7.8740157480314994E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2861,7 +2784,7 @@
         <v>7.69230769230769E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2890,7 +2813,7 @@
         <v>0.14285714285714299</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2919,7 +2842,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2960,7 +2883,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
